--- a/analysis/xlsx/2023/2023_성별_매출.xlsx
+++ b/analysis/xlsx/2023/2023_성별_매출.xlsx
@@ -477,15 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1442934000</v>
+        <v>1565180000</v>
       </c>
       <c r="D2" t="n">
-        <v>1731939000</v>
+        <v>1882066500</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023년도 남 - 공급가액: 1442934000.0, 예측 공급가액: 1731939000.0
-2023년도 여 - 공급가액: 1577313000.0, 예측 공급가액: 1891736600.0</t>
+          <t>2023년도 남 - 공급가액: 1565180000.0, 예측 공급가액: 1882066500.0
+2023년도 여 - 공급가액: 1455067000.0, 예측 공급가액: 1741609100.0</t>
         </is>
       </c>
     </row>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1577313000</v>
+        <v>1455067000</v>
       </c>
       <c r="D3" t="n">
-        <v>1891736600</v>
+        <v>1741609100</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
